--- a/BSE5A-DataSet (version 1).xlsb.xlsx
+++ b/BSE5A-DataSet (version 1).xlsb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIBBAH NADEEM KHAN\OneDrive - Higher Education Commission\5th Semester\AI LAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIBBAH NADEEM KHAN\Arificial-Intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{8A1EDE6D-A314-4A9B-A263-188DAA469760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{592F73E9-0ED0-40E5-889D-5115FA16DECB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985E570-6E67-4090-83BA-ACDE7D0CC63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71B70F96-E367-402B-AA03-635E750A4C7F}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:AF47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -809,7 +809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -865,7 +865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -930,7 +930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -977,7 +977,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
